--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/02/2022</t>
+          <t>18/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Fotovoltaico Numpay</t>
         </is>
       </c>
       <c r="F5" t="n">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Numpay</t>
+          <t>Parque Solar Numpay SpA</t>
         </is>
       </c>
       <c r="F5" t="n">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/05/2022</t>
+          <t>10/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/05/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Maule.xlsx
+++ b/data/Maule.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>22/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
